--- a/results/mp/tinybert/corona/confidence/210/topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/topk-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,9 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -52,15 +49,6 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -79,100 +67,118 @@
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>good</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>save</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>store</t>
+    <t>you</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
   <si>
     <t>to</t>
@@ -533,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,7 +547,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
         <v>24</v>
@@ -602,13 +608,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -620,19 +626,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L3">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M3">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -644,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -652,13 +658,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,31 +676,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="L4">
+        <v>24</v>
+      </c>
+      <c r="M4">
+        <v>24</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4">
-        <v>0.9583333333333334</v>
-      </c>
-      <c r="L4">
-        <v>23</v>
-      </c>
-      <c r="M4">
-        <v>23</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -702,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.6232876712328768</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -720,19 +726,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,13 +758,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7272727272727273</v>
+        <v>0.2131782945736434</v>
       </c>
       <c r="C6">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D6">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -770,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>42</v>
+        <v>406</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -802,13 +808,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -820,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.8888888888888888</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,13 +858,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4642857142857143</v>
+        <v>0.1275167785234899</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -870,19 +876,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8823529411764706</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -902,13 +908,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3448275862068966</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -920,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>19</v>
+        <v>232</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -952,13 +958,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3133047210300429</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="C10">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -970,119 +976,71 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>160</v>
+        <v>335</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="L10">
+        <v>47</v>
+      </c>
+      <c r="M10">
+        <v>47</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>0.78125</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11">
+        <v>100</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>28</v>
       </c>
-      <c r="K10">
-        <v>0.875</v>
-      </c>
-      <c r="L10">
-        <v>14</v>
-      </c>
-      <c r="M10">
-        <v>14</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.1976744186046512</v>
-      </c>
-      <c r="C11">
-        <v>17</v>
-      </c>
-      <c r="D11">
-        <v>17</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>69</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L11">
-        <v>48</v>
-      </c>
-      <c r="M11">
-        <v>48</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>8</v>
-      </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.1875</v>
-      </c>
-      <c r="C12">
-        <v>15</v>
-      </c>
-      <c r="D12">
-        <v>15</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>65</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12">
-        <v>0.8148148148148148</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L12">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="M12">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1094,45 +1052,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.1636363636363636</v>
-      </c>
-      <c r="C13">
-        <v>18</v>
-      </c>
-      <c r="D13">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
+      <c r="J13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="L13">
         <v>92</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="L13">
-        <v>23</v>
-      </c>
       <c r="M13">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1144,45 +1078,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="C14">
-        <v>18</v>
-      </c>
-      <c r="D14">
-        <v>18</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>117</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.7843137254901961</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L14">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="M14">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1194,21 +1104,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.7397260273972602</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L15">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="M15">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1220,21 +1130,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.7307692307692307</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="L16">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1246,21 +1156,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.717948717948718</v>
+        <v>0.71875</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1272,21 +1182,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K18">
         <v>0.7058823529411765</v>
       </c>
       <c r="L18">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1298,21 +1208,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.68</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1324,21 +1234,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.6724137931034483</v>
+        <v>0.66</v>
       </c>
       <c r="L20">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M20">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1350,21 +1260,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="L21">
         <v>39</v>
       </c>
-      <c r="K21">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="L21">
-        <v>11</v>
-      </c>
       <c r="M21">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1376,21 +1286,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.64</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1402,21 +1312,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6363636363636364</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1428,21 +1338,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.625</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1454,21 +1364,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.5586854460093896</v>
+        <v>0.5352480417754569</v>
       </c>
       <c r="L25">
-        <v>119</v>
+        <v>205</v>
       </c>
       <c r="M25">
-        <v>119</v>
+        <v>205</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1480,47 +1390,47 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>94</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26">
+        <v>0.5056179775280899</v>
+      </c>
+      <c r="L26">
+        <v>45</v>
+      </c>
+      <c r="M26">
+        <v>45</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>44</v>
-      </c>
-      <c r="K26">
-        <v>0.55</v>
-      </c>
-      <c r="L26">
-        <v>11</v>
-      </c>
-      <c r="M26">
-        <v>11</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>9</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5333333333333333</v>
+        <v>0.461764705882353</v>
       </c>
       <c r="L27">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="M27">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1532,21 +1442,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.5</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L28">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="M28">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1558,21 +1468,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.4961240310077519</v>
+        <v>0.3556485355648535</v>
       </c>
       <c r="L29">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="M29">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1584,21 +1494,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>65</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.4930555555555556</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L30">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="M30">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1610,21 +1520,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.4571428571428571</v>
+        <v>0.328125</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1636,21 +1546,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.391304347826087</v>
+        <v>0.2876712328767123</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1662,21 +1572,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.2631578947368421</v>
+        <v>0.0275</v>
       </c>
       <c r="L33">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1688,21 +1598,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>28</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.02439024390243903</v>
+        <v>0.02552719200887902</v>
       </c>
       <c r="L34">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="M34">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1714,33 +1624,189 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>400</v>
+        <v>878</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K35">
+        <v>0.01401214385801028</v>
+      </c>
+      <c r="L35">
+        <v>30</v>
+      </c>
+      <c r="M35">
+        <v>32</v>
+      </c>
+      <c r="N35">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O35">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K36">
+        <v>0.01269451269451269</v>
+      </c>
+      <c r="L36">
+        <v>31</v>
+      </c>
+      <c r="M36">
+        <v>34</v>
+      </c>
+      <c r="N36">
+        <v>0.91</v>
+      </c>
+      <c r="O36">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K37">
+        <v>0.01021021021021021</v>
+      </c>
+      <c r="L37">
+        <v>51</v>
+      </c>
+      <c r="M37">
+        <v>52</v>
+      </c>
+      <c r="N37">
+        <v>0.98</v>
+      </c>
+      <c r="O37">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>4944</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38">
+        <v>0.009359790340696368</v>
+      </c>
+      <c r="L38">
+        <v>25</v>
+      </c>
+      <c r="M38">
+        <v>27</v>
+      </c>
+      <c r="N38">
+        <v>0.93</v>
+      </c>
+      <c r="O38">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K35">
-        <v>0.005733944954128441</v>
-      </c>
-      <c r="L35">
-        <v>10</v>
-      </c>
-      <c r="M35">
-        <v>12</v>
-      </c>
-      <c r="N35">
-        <v>0.83</v>
-      </c>
-      <c r="O35">
-        <v>0.17</v>
-      </c>
-      <c r="P35" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q35">
-        <v>1734</v>
+      <c r="K39">
+        <v>0.008136381247578458</v>
+      </c>
+      <c r="L39">
+        <v>42</v>
+      </c>
+      <c r="M39">
+        <v>45</v>
+      </c>
+      <c r="N39">
+        <v>0.93</v>
+      </c>
+      <c r="O39">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40">
+        <v>0.0077269800386349</v>
+      </c>
+      <c r="L40">
+        <v>24</v>
+      </c>
+      <c r="M40">
+        <v>25</v>
+      </c>
+      <c r="N40">
+        <v>0.96</v>
+      </c>
+      <c r="O40">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K41">
+        <v>0.005777675063554426</v>
+      </c>
+      <c r="L41">
+        <v>25</v>
+      </c>
+      <c r="M41">
+        <v>26</v>
+      </c>
+      <c r="N41">
+        <v>0.96</v>
+      </c>
+      <c r="O41">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>4302</v>
       </c>
     </row>
   </sheetData>
